--- a/data/trans_dic/P70C2_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70C2_R_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06509417134914096</v>
+        <v>0.06165065039648816</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06102136632510032</v>
+        <v>0.0641690589758467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06804663324132317</v>
+        <v>0.07175011197622137</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1357548446097128</v>
+        <v>0.1442911487970567</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1356769808298332</v>
+        <v>0.1431440821985131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1204777179609784</v>
+        <v>0.1204674133453829</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09078260104667699</v>
+        <v>0.090782601046677</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07898587541608902</v>
+        <v>0.07898587541608901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0858610072605426</v>
+        <v>0.08586100726054259</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06609912129750557</v>
+        <v>0.06741308558008878</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05794831785037789</v>
+        <v>0.0598950198772682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06900826680312443</v>
+        <v>0.06911934304206278</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.118795598742514</v>
+        <v>0.1212562067854594</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1056557066506705</v>
+        <v>0.1051571540772804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1066818811068489</v>
+        <v>0.1058781135836498</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05975924612171201</v>
+        <v>0.05975924612171202</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1071616264054031</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08086288078462654</v>
+        <v>0.08086288078462653</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03815477645879626</v>
+        <v>0.03672389251433298</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07885973175168293</v>
+        <v>0.08006509128916303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06248548691974436</v>
+        <v>0.06241422734809596</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09215463417333773</v>
+        <v>0.09028713310641188</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.141206602655346</v>
+        <v>0.1467466314089403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1054913643579348</v>
+        <v>0.1037012855470644</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08622516136239028</v>
+        <v>0.08622516136239027</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1063067290970102</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06443958400228914</v>
+        <v>0.06286238663964729</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08375154156277684</v>
+        <v>0.08399057444681872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07818291118205148</v>
+        <v>0.07823092759988795</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1181499462981386</v>
+        <v>0.1161175409825237</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.13379500197957</v>
+        <v>0.1348602468314289</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1164703499496185</v>
+        <v>0.1139370743895519</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.08308421890987243</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.09617176205466348</v>
+        <v>0.09617176205466346</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.08883071719958008</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06902639077040104</v>
+        <v>0.06947603780450221</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08248319215441378</v>
+        <v>0.08243774752596328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07972773592581106</v>
+        <v>0.07949243629260414</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09963981188708343</v>
+        <v>0.09777347825544305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1115974798695459</v>
+        <v>0.1123175601413796</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09905498262808238</v>
+        <v>0.1006158314273172</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23731</v>
+        <v>22476</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16692</v>
+        <v>17553</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43422</v>
+        <v>45785</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49492</v>
+        <v>52604</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37114</v>
+        <v>39157</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76879</v>
+        <v>76872</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41077</v>
+        <v>41893</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25779</v>
+        <v>26645</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>73584</v>
+        <v>73702</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73825</v>
+        <v>75354</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47002</v>
+        <v>46780</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>113755</v>
+        <v>112898</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15888</v>
+        <v>15292</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26352</v>
+        <v>26754</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>46900</v>
+        <v>46847</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38375</v>
+        <v>37597</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47185</v>
+        <v>49037</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>79179</v>
+        <v>77836</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>32734</v>
+        <v>31933</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>37092</v>
+        <v>37198</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>74340</v>
+        <v>74386</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>60017</v>
+        <v>58985</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59255</v>
+        <v>59727</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>110746</v>
+        <v>108337</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>131868</v>
+        <v>132727</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>123349</v>
+        <v>123281</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>271541</v>
+        <v>270739</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>190352</v>
+        <v>186787</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>166888</v>
+        <v>167965</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>337367</v>
+        <v>342683</v>
       </c>
     </row>
     <row r="24">
